--- a/sp2025/lectures/sp2025.xlsx
+++ b/sp2025/lectures/sp2025.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K198"/>
+  <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="H97" s="4" t="inlineStr">
         <is>
-          <t>f'{expand_quiz(quizzes, 'Practice Quiz 2 ', 'practice quiz 2', url_type='anchor', target='_blank')} - due Feb. 4, TUE'</t>
+          <t>f'{expand_quiz(quizzes, 'Quiz 2', 'Quiz 2 - Relational Algebra - Requires Respondus LockDown Browser + Webcam', url_type='anchor', target='_blank')} - due Feb. 13, THURS'</t>
         </is>
       </c>
       <c r="I97" s="4" t="inlineStr">
@@ -5495,7 +5495,7 @@
       </c>
       <c r="H98" s="4" t="inlineStr">
         <is>
-          <t>f'{expand_assignment(assignments, 'Homework 3 - ER Modeling ', 'Homework 3 - Modeling your world', url_type='anchor')} - due Feb. 4, TUE'</t>
+          <t>f'{expand_assignment(assignments, 'Homework 3 - ER Modeling ', 'Homework 3 - Modeling your world', url_type='anchor')} - due Feb. 16, SUN'</t>
         </is>
       </c>
       <c r="I98" s="4" t="inlineStr">
@@ -5655,17 +5655,17 @@
       </c>
       <c r="G101" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>topic</t>
         </is>
       </c>
       <c r="H101" s="4" t="inlineStr">
         <is>
-          <t>Practice Quiz 2 - Relational Algebra</t>
+          <t>Practice Quiz 2 discussion</t>
         </is>
       </c>
       <c r="I101" s="4" t="inlineStr">
         <is>
-          <t>_practice-quiz-2-relational-algebra-sp2025</t>
+          <t>#practice-quiz-2---relational-algebra</t>
         </is>
       </c>
       <c r="J101" s="4" t="inlineStr">
@@ -5710,17 +5710,17 @@
       </c>
       <c r="G102" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>topic</t>
         </is>
       </c>
       <c r="H102" s="4" t="inlineStr">
         <is>
-          <t>Homework 3 - Modeling your world</t>
+          <t>Homework 3 - Modeling Your World</t>
         </is>
       </c>
       <c r="I102" s="4" t="inlineStr">
         <is>
-          <t>_homework-3-modeling-your-world-sp2025</t>
+          <t>#homework-3---modeling-your-world</t>
         </is>
       </c>
       <c r="J102" s="4" t="inlineStr">
@@ -5765,7 +5765,7 @@
       </c>
       <c r="G103" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>topic</t>
         </is>
       </c>
       <c r="H103" s="4" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="I103" s="4" t="inlineStr">
         <is>
-          <t>_join-operations</t>
+          <t>#join-operations</t>
         </is>
       </c>
       <c r="J103" s="4" t="inlineStr">
@@ -5820,57 +5820,99 @@
       </c>
       <c r="G104" s="4" t="inlineStr">
         <is>
+          <t>topic</t>
+        </is>
+      </c>
+      <c r="H104" s="4" t="inlineStr">
+        <is>
+          <t>Renaming and Division</t>
+        </is>
+      </c>
+      <c r="I104" s="4" t="inlineStr">
+        <is>
+          <t>#renaming-and-division</t>
+        </is>
+      </c>
+      <c r="J104" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K104" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="inlineStr">
+        <is>
+          <t>lecture-09.qmd</t>
+        </is>
+      </c>
+      <c r="B105" s="4" t="inlineStr">
+        <is>
+          <t>Relational Algebra 2</t>
+        </is>
+      </c>
+      <c r="C105" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="D105" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E105" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F105" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G105" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H104" s="4" t="inlineStr">
-        <is>
-          <t>Renaming and Division</t>
-        </is>
-      </c>
-      <c r="I104" s="4" t="inlineStr">
-        <is>
-          <t>_renaming-and-division</t>
-        </is>
-      </c>
-      <c r="J104" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K104" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="4" t="inlineStr"/>
-      <c r="B105" s="4" t="inlineStr"/>
-      <c r="C105" s="5" t="inlineStr"/>
-      <c r="D105" s="5" t="inlineStr"/>
-      <c r="E105" s="5" t="inlineStr"/>
-      <c r="F105" s="5" t="inlineStr"/>
-      <c r="G105" s="4" t="inlineStr"/>
-      <c r="H105" s="4" t="inlineStr"/>
-      <c r="I105" s="4" t="inlineStr"/>
-      <c r="J105" s="4" t="inlineStr"/>
-      <c r="K105" s="4" t="inlineStr"/>
+      <c r="H105" s="4" t="inlineStr">
+        <is>
+          <t>Practice Quiz 2 - Relational Algebra</t>
+        </is>
+      </c>
+      <c r="I105" s="4" t="inlineStr">
+        <is>
+          <t>_practice-quiz-2-relational-algebra-sp2025</t>
+        </is>
+      </c>
+      <c r="J105" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K105" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="4" t="inlineStr">
         <is>
-          <t>lecture-10.qmd</t>
+          <t>lecture-09.qmd</t>
         </is>
       </c>
       <c r="B106" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 1</t>
+          <t>Relational Algebra 2</t>
         </is>
       </c>
       <c r="C106" s="5" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="D106" s="5" t="inlineStr">
@@ -5880,25 +5922,25 @@
       </c>
       <c r="E106" s="5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F106" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G106" s="4" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H106" s="4" t="inlineStr">
         <is>
-          <t>This is a placeholder Lecture.</t>
+          <t>Homework 3 - Modeling your world</t>
         </is>
       </c>
       <c r="I106" s="4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>_homework-3-modeling-your-world-sp2025</t>
         </is>
       </c>
       <c r="J106" s="4" t="inlineStr">
@@ -5915,17 +5957,17 @@
     <row r="107">
       <c r="A107" s="4" t="inlineStr">
         <is>
-          <t>lecture-10.qmd</t>
+          <t>lecture-09.qmd</t>
         </is>
       </c>
       <c r="B107" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 1</t>
+          <t>Relational Algebra 2</t>
         </is>
       </c>
       <c r="C107" s="5" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="D107" s="5" t="inlineStr">
@@ -5935,52 +5977,52 @@
       </c>
       <c r="E107" s="5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F107" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G107" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H107" s="4" t="inlineStr">
         <is>
-          <t>Discussion 3 - Normal forms</t>
+          <t>Join Examples</t>
         </is>
       </c>
       <c r="I107" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075915</t>
+          <t>_join-examples</t>
         </is>
       </c>
       <c r="J107" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K107" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 2/23, SUN</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="4" t="inlineStr">
         <is>
-          <t>lecture-10.qmd</t>
+          <t>lecture-09.qmd</t>
         </is>
       </c>
       <c r="B108" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 1</t>
+          <t>Relational Algebra 2</t>
         </is>
       </c>
       <c r="C108" s="5" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="D108" s="5" t="inlineStr">
@@ -5990,52 +6032,52 @@
       </c>
       <c r="E108" s="5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F108" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G108" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H108" s="4" t="inlineStr">
         <is>
-          <t>Practice Quiz 3 - Analysis and Normal Forms</t>
+          <t>Join Operations</t>
         </is>
       </c>
       <c r="I108" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081390</t>
+          <t>_join-operations</t>
         </is>
       </c>
       <c r="J108" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K108" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 2/25, TUE</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
         <is>
-          <t>lecture-10.qmd</t>
+          <t>lecture-09.qmd</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 1</t>
+          <t>Relational Algebra 2</t>
         </is>
       </c>
       <c r="C109" s="5" t="inlineStr">
         <is>
-          <t>2025-02-18</t>
+          <t>2025-02-11</t>
         </is>
       </c>
       <c r="D109" s="5" t="inlineStr">
@@ -6045,11 +6087,11 @@
       </c>
       <c r="E109" s="5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F109" s="5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G109" s="4" t="inlineStr">
         <is>
@@ -6058,12 +6100,12 @@
       </c>
       <c r="H109" s="4" t="inlineStr">
         <is>
-          <t>When ready, the complete lecture will replace this one.</t>
+          <t>Join Use Cases</t>
         </is>
       </c>
       <c r="I109" s="4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>_join-use-cases</t>
         </is>
       </c>
       <c r="J109" s="4" t="inlineStr">
@@ -6078,92 +6120,92 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="inlineStr"/>
-      <c r="B110" s="4" t="inlineStr"/>
-      <c r="C110" s="5" t="inlineStr"/>
-      <c r="D110" s="5" t="inlineStr"/>
-      <c r="E110" s="5" t="inlineStr"/>
-      <c r="F110" s="5" t="inlineStr"/>
-      <c r="G110" s="4" t="inlineStr"/>
-      <c r="H110" s="4" t="inlineStr"/>
-      <c r="I110" s="4" t="inlineStr"/>
-      <c r="J110" s="4" t="inlineStr"/>
-      <c r="K110" s="4" t="inlineStr"/>
+      <c r="A110" s="4" t="inlineStr">
+        <is>
+          <t>lecture-09.qmd</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>Relational Algebra 2</t>
+        </is>
+      </c>
+      <c r="C110" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-11</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E110" s="5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F110" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G110" s="4" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="H110" s="4" t="inlineStr">
+        <is>
+          <t>Renaming and Division</t>
+        </is>
+      </c>
+      <c r="I110" s="4" t="inlineStr">
+        <is>
+          <t>_renaming-and-division</t>
+        </is>
+      </c>
+      <c r="J110" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K110" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" s="4" t="inlineStr">
-        <is>
-          <t>lecture-11.qmd</t>
-        </is>
-      </c>
-      <c r="B111" s="4" t="inlineStr">
-        <is>
-          <t>Analysis and Normal Forms 2</t>
-        </is>
-      </c>
-      <c r="C111" s="5" t="inlineStr">
-        <is>
-          <t>2025-02-20</t>
-        </is>
-      </c>
-      <c r="D111" s="5" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E111" s="5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="F111" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="G111" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H111" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I111" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J111" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K111" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A111" s="4" t="inlineStr"/>
+      <c r="B111" s="4" t="inlineStr"/>
+      <c r="C111" s="5" t="inlineStr"/>
+      <c r="D111" s="5" t="inlineStr"/>
+      <c r="E111" s="5" t="inlineStr"/>
+      <c r="F111" s="5" t="inlineStr"/>
+      <c r="G111" s="4" t="inlineStr"/>
+      <c r="H111" s="4" t="inlineStr"/>
+      <c r="I111" s="4" t="inlineStr"/>
+      <c r="J111" s="4" t="inlineStr"/>
+      <c r="K111" s="4" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
         <is>
-          <t>lecture-11.qmd</t>
+          <t>lecture-10.qmd</t>
         </is>
       </c>
       <c r="B112" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 2</t>
+          <t>Analysis and Normal Forms 1</t>
         </is>
       </c>
       <c r="C112" s="5" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="D112" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E112" s="5" t="inlineStr">
@@ -6172,53 +6214,53 @@
         </is>
       </c>
       <c r="F112" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G112" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H112" s="4" t="inlineStr">
         <is>
-          <t>Discussion 3 - Normal forms</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I112" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075915</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J112" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K112" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 2/23, SUN</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="inlineStr">
         <is>
-          <t>lecture-11.qmd</t>
+          <t>lecture-10.qmd</t>
         </is>
       </c>
       <c r="B113" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 2</t>
+          <t>Analysis and Normal Forms 1</t>
         </is>
       </c>
       <c r="C113" s="5" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="D113" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E113" s="5" t="inlineStr">
@@ -6227,7 +6269,7 @@
         </is>
       </c>
       <c r="F113" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G113" s="4" t="inlineStr">
         <is>
@@ -6236,12 +6278,12 @@
       </c>
       <c r="H113" s="4" t="inlineStr">
         <is>
-          <t>Practice Quiz 3 - Analysis and Normal Forms</t>
+          <t>Discussion 3 - Normal forms</t>
         </is>
       </c>
       <c r="I113" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081390</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075915</t>
         </is>
       </c>
       <c r="J113" s="4" t="inlineStr">
@@ -6251,29 +6293,29 @@
       </c>
       <c r="K113" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 2/25, TUE</t>
+          <t xml:space="preserve"> - due 2/23, SUN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
         <is>
-          <t>lecture-11.qmd</t>
+          <t>lecture-10.qmd</t>
         </is>
       </c>
       <c r="B114" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 2</t>
+          <t>Analysis and Normal Forms 1</t>
         </is>
       </c>
       <c r="C114" s="5" t="inlineStr">
         <is>
-          <t>2025-02-20</t>
+          <t>2025-02-18</t>
         </is>
       </c>
       <c r="D114" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E114" s="5" t="inlineStr">
@@ -6282,185 +6324,185 @@
         </is>
       </c>
       <c r="F114" s="5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G114" s="4" t="inlineStr">
         <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H114" s="4" t="inlineStr">
+        <is>
+          <t>Practice Quiz 3 - Analysis and Normal Forms</t>
+        </is>
+      </c>
+      <c r="I114" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081390</t>
+        </is>
+      </c>
+      <c r="J114" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K114" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 2/25, TUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="inlineStr">
+        <is>
+          <t>lecture-10.qmd</t>
+        </is>
+      </c>
+      <c r="B115" s="4" t="inlineStr">
+        <is>
+          <t>Analysis and Normal Forms 1</t>
+        </is>
+      </c>
+      <c r="C115" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="D115" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E115" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F115" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G115" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H114" s="4" t="inlineStr">
+      <c r="H115" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I114" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J114" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K114" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="4" t="inlineStr"/>
-      <c r="B115" s="4" t="inlineStr"/>
-      <c r="C115" s="5" t="inlineStr"/>
-      <c r="D115" s="5" t="inlineStr"/>
-      <c r="E115" s="5" t="inlineStr"/>
-      <c r="F115" s="5" t="inlineStr"/>
-      <c r="G115" s="4" t="inlineStr"/>
-      <c r="H115" s="4" t="inlineStr"/>
-      <c r="I115" s="4" t="inlineStr"/>
-      <c r="J115" s="4" t="inlineStr"/>
-      <c r="K115" s="4" t="inlineStr"/>
+      <c r="I115" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J115" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K115" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="inlineStr">
-        <is>
-          <t>lecture-12.qmd</t>
-        </is>
-      </c>
-      <c r="B116" s="4" t="inlineStr">
-        <is>
-          <t>Analysis and Normal Forms 3</t>
-        </is>
-      </c>
-      <c r="C116" s="5" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="D116" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E116" s="5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F116" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="G116" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H116" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I116" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J116" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K116" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A116" s="4" t="inlineStr"/>
+      <c r="B116" s="4" t="inlineStr"/>
+      <c r="C116" s="5" t="inlineStr"/>
+      <c r="D116" s="5" t="inlineStr"/>
+      <c r="E116" s="5" t="inlineStr"/>
+      <c r="F116" s="5" t="inlineStr"/>
+      <c r="G116" s="4" t="inlineStr"/>
+      <c r="H116" s="4" t="inlineStr"/>
+      <c r="I116" s="4" t="inlineStr"/>
+      <c r="J116" s="4" t="inlineStr"/>
+      <c r="K116" s="4" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
         <is>
-          <t>lecture-12.qmd</t>
+          <t>lecture-11.qmd</t>
         </is>
       </c>
       <c r="B117" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 3</t>
+          <t>Analysis and Normal Forms 2</t>
         </is>
       </c>
       <c r="C117" s="5" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="D117" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E117" s="5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F117" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G117" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H117" s="4" t="inlineStr">
         <is>
-          <t>Practice Quiz 3 - Analysis and Normal Forms</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I117" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081390</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J117" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K117" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 2/25, TUE</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
         <is>
-          <t>lecture-12.qmd</t>
+          <t>lecture-11.qmd</t>
         </is>
       </c>
       <c r="B118" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 3</t>
+          <t>Analysis and Normal Forms 2</t>
         </is>
       </c>
       <c r="C118" s="5" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="D118" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E118" s="5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F118" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G118" s="4" t="inlineStr">
         <is>
@@ -6469,12 +6511,12 @@
       </c>
       <c r="H118" s="4" t="inlineStr">
         <is>
-          <t>Deliverable 5 - Design Documentation</t>
+          <t>Discussion 3 - Normal forms</t>
         </is>
       </c>
       <c r="I118" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075770</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075915</t>
         </is>
       </c>
       <c r="J118" s="4" t="inlineStr">
@@ -6484,152 +6526,152 @@
       </c>
       <c r="K118" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/02, SUN</t>
+          <t xml:space="preserve"> - due 2/23, SUN</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
         <is>
-          <t>lecture-12.qmd</t>
+          <t>lecture-11.qmd</t>
         </is>
       </c>
       <c r="B119" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 3</t>
+          <t>Analysis and Normal Forms 2</t>
         </is>
       </c>
       <c r="C119" s="5" t="inlineStr">
         <is>
-          <t>2025-02-25</t>
+          <t>2025-02-20</t>
         </is>
       </c>
       <c r="D119" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E119" s="5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F119" s="5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G119" s="4" t="inlineStr">
         <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H119" s="4" t="inlineStr">
+        <is>
+          <t>Practice Quiz 3 - Analysis and Normal Forms</t>
+        </is>
+      </c>
+      <c r="I119" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081390</t>
+        </is>
+      </c>
+      <c r="J119" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K119" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 2/25, TUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>lecture-11.qmd</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>Analysis and Normal Forms 2</t>
+        </is>
+      </c>
+      <c r="C120" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-20</t>
+        </is>
+      </c>
+      <c r="D120" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E120" s="5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F120" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G120" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H119" s="4" t="inlineStr">
+      <c r="H120" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I119" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J119" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K119" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="4" t="inlineStr"/>
-      <c r="B120" s="4" t="inlineStr"/>
-      <c r="C120" s="5" t="inlineStr"/>
-      <c r="D120" s="5" t="inlineStr"/>
-      <c r="E120" s="5" t="inlineStr"/>
-      <c r="F120" s="5" t="inlineStr"/>
-      <c r="G120" s="4" t="inlineStr"/>
-      <c r="H120" s="4" t="inlineStr"/>
-      <c r="I120" s="4" t="inlineStr"/>
-      <c r="J120" s="4" t="inlineStr"/>
-      <c r="K120" s="4" t="inlineStr"/>
+      <c r="I120" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J120" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K120" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="inlineStr">
-        <is>
-          <t>lecture-13.qmd</t>
-        </is>
-      </c>
-      <c r="B121" s="4" t="inlineStr">
-        <is>
-          <t>Analysis and Normal Forms 4</t>
-        </is>
-      </c>
-      <c r="C121" s="5" t="inlineStr">
-        <is>
-          <t>2025-02-27</t>
-        </is>
-      </c>
-      <c r="D121" s="5" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E121" s="5" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="F121" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="G121" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H121" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I121" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J121" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K121" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A121" s="4" t="inlineStr"/>
+      <c r="B121" s="4" t="inlineStr"/>
+      <c r="C121" s="5" t="inlineStr"/>
+      <c r="D121" s="5" t="inlineStr"/>
+      <c r="E121" s="5" t="inlineStr"/>
+      <c r="F121" s="5" t="inlineStr"/>
+      <c r="G121" s="4" t="inlineStr"/>
+      <c r="H121" s="4" t="inlineStr"/>
+      <c r="I121" s="4" t="inlineStr"/>
+      <c r="J121" s="4" t="inlineStr"/>
+      <c r="K121" s="4" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
         <is>
-          <t>lecture-13.qmd</t>
+          <t>lecture-12.qmd</t>
         </is>
       </c>
       <c r="B122" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 4</t>
+          <t>Analysis and Normal Forms 3</t>
         </is>
       </c>
       <c r="C122" s="5" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="D122" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E122" s="5" t="inlineStr">
@@ -6638,53 +6680,53 @@
         </is>
       </c>
       <c r="F122" s="5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G122" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H122" s="4" t="inlineStr">
         <is>
-          <t>Deliverable 5 - Design Documentation</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I122" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075770</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J122" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K122" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/02, SUN</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="4" t="inlineStr">
         <is>
-          <t>lecture-13.qmd</t>
+          <t>lecture-12.qmd</t>
         </is>
       </c>
       <c r="B123" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 4</t>
+          <t>Analysis and Normal Forms 3</t>
         </is>
       </c>
       <c r="C123" s="5" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="D123" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E123" s="5" t="inlineStr">
@@ -6693,7 +6735,7 @@
         </is>
       </c>
       <c r="F123" s="5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G123" s="4" t="inlineStr">
         <is>
@@ -6702,12 +6744,12 @@
       </c>
       <c r="H123" s="4" t="inlineStr">
         <is>
-          <t>Quiz 3 - Analysis and Normal Forms</t>
+          <t>Practice Quiz 3 - Analysis and Normal Forms</t>
         </is>
       </c>
       <c r="I123" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072330</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081390</t>
         </is>
       </c>
       <c r="J123" s="4" t="inlineStr">
@@ -6717,29 +6759,29 @@
       </c>
       <c r="K123" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/06, THU</t>
+          <t xml:space="preserve"> - due 2/25, TUE</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
         <is>
-          <t>lecture-13.qmd</t>
+          <t>lecture-12.qmd</t>
         </is>
       </c>
       <c r="B124" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 4</t>
+          <t>Analysis and Normal Forms 3</t>
         </is>
       </c>
       <c r="C124" s="5" t="inlineStr">
         <is>
-          <t>2025-02-27</t>
+          <t>2025-02-25</t>
         </is>
       </c>
       <c r="D124" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E124" s="5" t="inlineStr">
@@ -6748,185 +6790,185 @@
         </is>
       </c>
       <c r="F124" s="5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G124" s="4" t="inlineStr">
         <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H124" s="4" t="inlineStr">
+        <is>
+          <t>Deliverable 5 - Design Documentation</t>
+        </is>
+      </c>
+      <c r="I124" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075770</t>
+        </is>
+      </c>
+      <c r="J124" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K124" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 3/02, SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="inlineStr">
+        <is>
+          <t>lecture-12.qmd</t>
+        </is>
+      </c>
+      <c r="B125" s="4" t="inlineStr">
+        <is>
+          <t>Analysis and Normal Forms 3</t>
+        </is>
+      </c>
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="D125" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E125" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F125" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="G125" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H124" s="4" t="inlineStr">
+      <c r="H125" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I124" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J124" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K124" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="4" t="inlineStr"/>
-      <c r="B125" s="4" t="inlineStr"/>
-      <c r="C125" s="5" t="inlineStr"/>
-      <c r="D125" s="5" t="inlineStr"/>
-      <c r="E125" s="5" t="inlineStr"/>
-      <c r="F125" s="5" t="inlineStr"/>
-      <c r="G125" s="4" t="inlineStr"/>
-      <c r="H125" s="4" t="inlineStr"/>
-      <c r="I125" s="4" t="inlineStr"/>
-      <c r="J125" s="4" t="inlineStr"/>
-      <c r="K125" s="4" t="inlineStr"/>
+      <c r="I125" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J125" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K125" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="inlineStr">
-        <is>
-          <t>lecture-14.qmd</t>
-        </is>
-      </c>
-      <c r="B126" s="4" t="inlineStr">
-        <is>
-          <t>Analysis and Normal Forms 5</t>
-        </is>
-      </c>
-      <c r="C126" s="5" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-      <c r="D126" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E126" s="5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F126" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="G126" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H126" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I126" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J126" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K126" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A126" s="4" t="inlineStr"/>
+      <c r="B126" s="4" t="inlineStr"/>
+      <c r="C126" s="5" t="inlineStr"/>
+      <c r="D126" s="5" t="inlineStr"/>
+      <c r="E126" s="5" t="inlineStr"/>
+      <c r="F126" s="5" t="inlineStr"/>
+      <c r="G126" s="4" t="inlineStr"/>
+      <c r="H126" s="4" t="inlineStr"/>
+      <c r="I126" s="4" t="inlineStr"/>
+      <c r="J126" s="4" t="inlineStr"/>
+      <c r="K126" s="4" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
         <is>
-          <t>lecture-14.qmd</t>
+          <t>lecture-13.qmd</t>
         </is>
       </c>
       <c r="B127" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 5</t>
+          <t>Analysis and Normal Forms 4</t>
         </is>
       </c>
       <c r="C127" s="5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="D127" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E127" s="5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F127" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G127" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H127" s="4" t="inlineStr">
         <is>
-          <t>Quiz 3 - Analysis and Normal Forms</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I127" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072330</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J127" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K127" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/06, THU</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
         <is>
-          <t>lecture-14.qmd</t>
+          <t>lecture-13.qmd</t>
         </is>
       </c>
       <c r="B128" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 5</t>
+          <t>Analysis and Normal Forms 4</t>
         </is>
       </c>
       <c r="C128" s="5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="D128" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E128" s="5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F128" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G128" s="4" t="inlineStr">
         <is>
@@ -6935,12 +6977,12 @@
       </c>
       <c r="H128" s="4" t="inlineStr">
         <is>
-          <t>Homework 4 - Analysis and Normal Forms</t>
+          <t>Deliverable 5 - Design Documentation</t>
         </is>
       </c>
       <c r="I128" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072339</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075770</t>
         </is>
       </c>
       <c r="J128" s="4" t="inlineStr">
@@ -6950,152 +6992,152 @@
       </c>
       <c r="K128" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/09, SUN</t>
+          <t xml:space="preserve"> - due 3/02, SUN</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr">
         <is>
-          <t>lecture-14.qmd</t>
+          <t>lecture-13.qmd</t>
         </is>
       </c>
       <c r="B129" s="4" t="inlineStr">
         <is>
-          <t>Analysis and Normal Forms 5</t>
+          <t>Analysis and Normal Forms 4</t>
         </is>
       </c>
       <c r="C129" s="5" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-02-27</t>
         </is>
       </c>
       <c r="D129" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E129" s="5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F129" s="5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G129" s="4" t="inlineStr">
         <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H129" s="4" t="inlineStr">
+        <is>
+          <t>Quiz 3 - Analysis and Normal Forms</t>
+        </is>
+      </c>
+      <c r="I129" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072330</t>
+        </is>
+      </c>
+      <c r="J129" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K129" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 3/06, THU</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>lecture-13.qmd</t>
+        </is>
+      </c>
+      <c r="B130" s="4" t="inlineStr">
+        <is>
+          <t>Analysis and Normal Forms 4</t>
+        </is>
+      </c>
+      <c r="C130" s="5" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="D130" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E130" s="5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F130" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="G130" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H129" s="4" t="inlineStr">
+      <c r="H130" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I129" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J129" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K129" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="4" t="inlineStr"/>
-      <c r="B130" s="4" t="inlineStr"/>
-      <c r="C130" s="5" t="inlineStr"/>
-      <c r="D130" s="5" t="inlineStr"/>
-      <c r="E130" s="5" t="inlineStr"/>
-      <c r="F130" s="5" t="inlineStr"/>
-      <c r="G130" s="4" t="inlineStr"/>
-      <c r="H130" s="4" t="inlineStr"/>
-      <c r="I130" s="4" t="inlineStr"/>
-      <c r="J130" s="4" t="inlineStr"/>
-      <c r="K130" s="4" t="inlineStr"/>
+      <c r="I130" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J130" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K130" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" s="4" t="inlineStr">
-        <is>
-          <t>lecture-15.qmd</t>
-        </is>
-      </c>
-      <c r="B131" s="4" t="inlineStr">
-        <is>
-          <t>Intro to SQL</t>
-        </is>
-      </c>
-      <c r="C131" s="5" t="inlineStr">
-        <is>
-          <t>2025-03-06</t>
-        </is>
-      </c>
-      <c r="D131" s="5" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E131" s="5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F131" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="G131" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H131" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I131" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J131" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K131" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A131" s="4" t="inlineStr"/>
+      <c r="B131" s="4" t="inlineStr"/>
+      <c r="C131" s="5" t="inlineStr"/>
+      <c r="D131" s="5" t="inlineStr"/>
+      <c r="E131" s="5" t="inlineStr"/>
+      <c r="F131" s="5" t="inlineStr"/>
+      <c r="G131" s="4" t="inlineStr"/>
+      <c r="H131" s="4" t="inlineStr"/>
+      <c r="I131" s="4" t="inlineStr"/>
+      <c r="J131" s="4" t="inlineStr"/>
+      <c r="K131" s="4" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="4" t="inlineStr">
         <is>
-          <t>lecture-15.qmd</t>
+          <t>lecture-14.qmd</t>
         </is>
       </c>
       <c r="B132" s="4" t="inlineStr">
         <is>
-          <t>Intro to SQL</t>
+          <t>Analysis and Normal Forms 5</t>
         </is>
       </c>
       <c r="C132" s="5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="D132" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E132" s="5" t="inlineStr">
@@ -7104,53 +7146,53 @@
         </is>
       </c>
       <c r="F132" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G132" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H132" s="4" t="inlineStr">
         <is>
-          <t>Quiz 3 - Analysis and Normal Forms</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I132" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072330</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J132" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K132" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/06, THU</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
         <is>
-          <t>lecture-15.qmd</t>
+          <t>lecture-14.qmd</t>
         </is>
       </c>
       <c r="B133" s="4" t="inlineStr">
         <is>
-          <t>Intro to SQL</t>
+          <t>Analysis and Normal Forms 5</t>
         </is>
       </c>
       <c r="C133" s="5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="D133" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E133" s="5" t="inlineStr">
@@ -7159,7 +7201,7 @@
         </is>
       </c>
       <c r="F133" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G133" s="4" t="inlineStr">
         <is>
@@ -7168,12 +7210,12 @@
       </c>
       <c r="H133" s="4" t="inlineStr">
         <is>
-          <t>Homework 4 - Analysis and Normal Forms</t>
+          <t>Quiz 3 - Analysis and Normal Forms</t>
         </is>
       </c>
       <c r="I133" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072339</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072330</t>
         </is>
       </c>
       <c r="J133" s="4" t="inlineStr">
@@ -7183,29 +7225,29 @@
       </c>
       <c r="K133" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/09, SUN</t>
+          <t xml:space="preserve"> - due 3/06, THU</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="4" t="inlineStr">
         <is>
-          <t>lecture-15.qmd</t>
+          <t>lecture-14.qmd</t>
         </is>
       </c>
       <c r="B134" s="4" t="inlineStr">
         <is>
-          <t>Intro to SQL</t>
+          <t>Analysis and Normal Forms 5</t>
         </is>
       </c>
       <c r="C134" s="5" t="inlineStr">
         <is>
-          <t>2025-03-06</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="D134" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E134" s="5" t="inlineStr">
@@ -7214,185 +7256,185 @@
         </is>
       </c>
       <c r="F134" s="5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G134" s="4" t="inlineStr">
         <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H134" s="4" t="inlineStr">
+        <is>
+          <t>Homework 4 - Analysis and Normal Forms</t>
+        </is>
+      </c>
+      <c r="I134" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072339</t>
+        </is>
+      </c>
+      <c r="J134" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K134" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 3/09, SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="inlineStr">
+        <is>
+          <t>lecture-14.qmd</t>
+        </is>
+      </c>
+      <c r="B135" s="4" t="inlineStr">
+        <is>
+          <t>Analysis and Normal Forms 5</t>
+        </is>
+      </c>
+      <c r="C135" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+      <c r="D135" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E135" s="5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F135" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="G135" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H134" s="4" t="inlineStr">
+      <c r="H135" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I134" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J134" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K134" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="4" t="inlineStr"/>
-      <c r="B135" s="4" t="inlineStr"/>
-      <c r="C135" s="5" t="inlineStr"/>
-      <c r="D135" s="5" t="inlineStr"/>
-      <c r="E135" s="5" t="inlineStr"/>
-      <c r="F135" s="5" t="inlineStr"/>
-      <c r="G135" s="4" t="inlineStr"/>
-      <c r="H135" s="4" t="inlineStr"/>
-      <c r="I135" s="4" t="inlineStr"/>
-      <c r="J135" s="4" t="inlineStr"/>
-      <c r="K135" s="4" t="inlineStr"/>
+      <c r="I135" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J135" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K135" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" s="4" t="inlineStr">
-        <is>
-          <t>lecture-16.qmd</t>
-        </is>
-      </c>
-      <c r="B136" s="4" t="inlineStr">
-        <is>
-          <t>SQL Selects</t>
-        </is>
-      </c>
-      <c r="C136" s="5" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="D136" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E136" s="5" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="F136" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="G136" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H136" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I136" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J136" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K136" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A136" s="4" t="inlineStr"/>
+      <c r="B136" s="4" t="inlineStr"/>
+      <c r="C136" s="5" t="inlineStr"/>
+      <c r="D136" s="5" t="inlineStr"/>
+      <c r="E136" s="5" t="inlineStr"/>
+      <c r="F136" s="5" t="inlineStr"/>
+      <c r="G136" s="4" t="inlineStr"/>
+      <c r="H136" s="4" t="inlineStr"/>
+      <c r="I136" s="4" t="inlineStr"/>
+      <c r="J136" s="4" t="inlineStr"/>
+      <c r="K136" s="4" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
         <is>
-          <t>lecture-16.qmd</t>
+          <t>lecture-15.qmd</t>
         </is>
       </c>
       <c r="B137" s="4" t="inlineStr">
         <is>
-          <t>SQL Selects</t>
+          <t>Intro to SQL</t>
         </is>
       </c>
       <c r="C137" s="5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="D137" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E137" s="5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F137" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G137" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H137" s="4" t="inlineStr">
         <is>
-          <t>Practice Quiz 4 - SQL Basics</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I137" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081391</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J137" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K137" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/18, TUE</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
         <is>
-          <t>lecture-16.qmd</t>
+          <t>lecture-15.qmd</t>
         </is>
       </c>
       <c r="B138" s="4" t="inlineStr">
         <is>
-          <t>SQL Selects</t>
+          <t>Intro to SQL</t>
         </is>
       </c>
       <c r="C138" s="5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="D138" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E138" s="5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F138" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G138" s="4" t="inlineStr">
         <is>
@@ -7401,12 +7443,12 @@
       </c>
       <c r="H138" s="4" t="inlineStr">
         <is>
-          <t>Discussion 4 - SQL Basics</t>
+          <t>Quiz 3 - Analysis and Normal Forms</t>
         </is>
       </c>
       <c r="I138" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075916</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072330</t>
         </is>
       </c>
       <c r="J138" s="4" t="inlineStr">
@@ -7416,38 +7458,38 @@
       </c>
       <c r="K138" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/23, SUN</t>
+          <t xml:space="preserve"> - due 3/06, THU</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
         <is>
-          <t>lecture-16.qmd</t>
+          <t>lecture-15.qmd</t>
         </is>
       </c>
       <c r="B139" s="4" t="inlineStr">
         <is>
-          <t>SQL Selects</t>
+          <t>Intro to SQL</t>
         </is>
       </c>
       <c r="C139" s="5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="D139" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E139" s="5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F139" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G139" s="4" t="inlineStr">
         <is>
@@ -7456,12 +7498,12 @@
       </c>
       <c r="H139" s="4" t="inlineStr">
         <is>
-          <t>Homework 5 - Getting started with SQL</t>
+          <t>Homework 4 - Analysis and Normal Forms</t>
         </is>
       </c>
       <c r="I139" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072341</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072339</t>
         </is>
       </c>
       <c r="J139" s="4" t="inlineStr">
@@ -7471,38 +7513,38 @@
       </c>
       <c r="K139" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/23, SUN</t>
+          <t xml:space="preserve"> - due 3/09, SUN</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
         <is>
-          <t>lecture-16.qmd</t>
+          <t>lecture-15.qmd</t>
         </is>
       </c>
       <c r="B140" s="4" t="inlineStr">
         <is>
-          <t>SQL Selects</t>
+          <t>Intro to SQL</t>
         </is>
       </c>
       <c r="C140" s="5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-06</t>
         </is>
       </c>
       <c r="D140" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E140" s="5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F140" s="5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G140" s="4" t="inlineStr">
         <is>
@@ -7546,22 +7588,22 @@
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
         <is>
-          <t>lecture-17.qmd</t>
+          <t>lecture-16.qmd</t>
         </is>
       </c>
       <c r="B142" s="4" t="inlineStr">
         <is>
-          <t>SQL Toolset</t>
+          <t>SQL Selects</t>
         </is>
       </c>
       <c r="C142" s="5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="D142" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E142" s="5" t="inlineStr">
@@ -7570,7 +7612,7 @@
         </is>
       </c>
       <c r="F142" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G142" s="4" t="inlineStr">
         <is>
@@ -7601,22 +7643,22 @@
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
         <is>
-          <t>lecture-17.qmd</t>
+          <t>lecture-16.qmd</t>
         </is>
       </c>
       <c r="B143" s="4" t="inlineStr">
         <is>
-          <t>SQL Toolset</t>
+          <t>SQL Selects</t>
         </is>
       </c>
       <c r="C143" s="5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="D143" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E143" s="5" t="inlineStr">
@@ -7625,7 +7667,7 @@
         </is>
       </c>
       <c r="F143" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G143" s="4" t="inlineStr">
         <is>
@@ -7634,12 +7676,12 @@
       </c>
       <c r="H143" s="4" t="inlineStr">
         <is>
-          <t>Discussion 4 - SQL Basics</t>
+          <t>Practice Quiz 4 - SQL Basics</t>
         </is>
       </c>
       <c r="I143" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075916</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081391</t>
         </is>
       </c>
       <c r="J143" s="4" t="inlineStr">
@@ -7649,29 +7691,29 @@
       </c>
       <c r="K143" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/23, SUN</t>
+          <t xml:space="preserve"> - due 3/18, TUE</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr">
         <is>
-          <t>lecture-17.qmd</t>
+          <t>lecture-16.qmd</t>
         </is>
       </c>
       <c r="B144" s="4" t="inlineStr">
         <is>
-          <t>SQL Toolset</t>
+          <t>SQL Selects</t>
         </is>
       </c>
       <c r="C144" s="5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="D144" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E144" s="5" t="inlineStr">
@@ -7680,7 +7722,7 @@
         </is>
       </c>
       <c r="F144" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G144" s="4" t="inlineStr">
         <is>
@@ -7689,12 +7731,12 @@
       </c>
       <c r="H144" s="4" t="inlineStr">
         <is>
-          <t>Homework 5 - Getting started with SQL</t>
+          <t>Discussion 4 - SQL Basics</t>
         </is>
       </c>
       <c r="I144" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072341</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075916</t>
         </is>
       </c>
       <c r="J144" s="4" t="inlineStr">
@@ -7711,22 +7753,22 @@
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
         <is>
-          <t>lecture-17.qmd</t>
+          <t>lecture-16.qmd</t>
         </is>
       </c>
       <c r="B145" s="4" t="inlineStr">
         <is>
-          <t>SQL Toolset</t>
+          <t>SQL Selects</t>
         </is>
       </c>
       <c r="C145" s="5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="D145" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E145" s="5" t="inlineStr">
@@ -7735,7 +7777,7 @@
         </is>
       </c>
       <c r="F145" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G145" s="4" t="inlineStr">
         <is>
@@ -7744,12 +7786,12 @@
       </c>
       <c r="H145" s="4" t="inlineStr">
         <is>
-          <t>Quiz 4 - SQL Basics</t>
+          <t>Homework 5 - Getting started with SQL</t>
         </is>
       </c>
       <c r="I145" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072331</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072341</t>
         </is>
       </c>
       <c r="J145" s="4" t="inlineStr">
@@ -7759,29 +7801,29 @@
       </c>
       <c r="K145" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/27, THU</t>
+          <t xml:space="preserve"> - due 3/23, SUN</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="4" t="inlineStr">
         <is>
-          <t>lecture-17.qmd</t>
+          <t>lecture-16.qmd</t>
         </is>
       </c>
       <c r="B146" s="4" t="inlineStr">
         <is>
-          <t>SQL Toolset</t>
+          <t>SQL Selects</t>
         </is>
       </c>
       <c r="C146" s="5" t="inlineStr">
         <is>
-          <t>2025-03-20</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="D146" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E146" s="5" t="inlineStr">
@@ -7790,7 +7832,7 @@
         </is>
       </c>
       <c r="F146" s="5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G146" s="4" t="inlineStr">
         <is>
@@ -7834,31 +7876,31 @@
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
         <is>
-          <t>lecture-18.qmd</t>
+          <t>lecture-17.qmd</t>
         </is>
       </c>
       <c r="B148" s="4" t="inlineStr">
         <is>
-          <t>SQL C-R-U-D</t>
+          <t>SQL Toolset</t>
         </is>
       </c>
       <c r="C148" s="5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="D148" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E148" s="5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F148" s="5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G148" s="4" t="inlineStr">
         <is>
@@ -7889,31 +7931,31 @@
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
         <is>
-          <t>lecture-18.qmd</t>
+          <t>lecture-17.qmd</t>
         </is>
       </c>
       <c r="B149" s="4" t="inlineStr">
         <is>
-          <t>SQL C-R-U-D</t>
+          <t>SQL Toolset</t>
         </is>
       </c>
       <c r="C149" s="5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="D149" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E149" s="5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F149" s="5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G149" s="4" t="inlineStr">
         <is>
@@ -7922,12 +7964,12 @@
       </c>
       <c r="H149" s="4" t="inlineStr">
         <is>
-          <t>Quiz 4 - SQL Basics</t>
+          <t>Discussion 4 - SQL Basics</t>
         </is>
       </c>
       <c r="I149" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072331</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075916</t>
         </is>
       </c>
       <c r="J149" s="4" t="inlineStr">
@@ -7937,38 +7979,38 @@
       </c>
       <c r="K149" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/27, THU</t>
+          <t xml:space="preserve"> - due 3/23, SUN</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
         <is>
-          <t>lecture-18.qmd</t>
+          <t>lecture-17.qmd</t>
         </is>
       </c>
       <c r="B150" s="4" t="inlineStr">
         <is>
-          <t>SQL C-R-U-D</t>
+          <t>SQL Toolset</t>
         </is>
       </c>
       <c r="C150" s="5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="D150" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E150" s="5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F150" s="5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G150" s="4" t="inlineStr">
         <is>
@@ -7977,12 +8019,12 @@
       </c>
       <c r="H150" s="4" t="inlineStr">
         <is>
-          <t>Deliverable 6 - Docker Scaffold</t>
+          <t>Homework 5 - Getting started with SQL</t>
         </is>
       </c>
       <c r="I150" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075772</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072341</t>
         </is>
       </c>
       <c r="J150" s="4" t="inlineStr">
@@ -7992,152 +8034,152 @@
       </c>
       <c r="K150" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/30, SUN</t>
+          <t xml:space="preserve"> - due 3/23, SUN</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="4" t="inlineStr">
         <is>
-          <t>lecture-18.qmd</t>
+          <t>lecture-17.qmd</t>
         </is>
       </c>
       <c r="B151" s="4" t="inlineStr">
         <is>
-          <t>SQL C-R-U-D</t>
+          <t>SQL Toolset</t>
         </is>
       </c>
       <c r="C151" s="5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="D151" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E151" s="5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F151" s="5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G151" s="4" t="inlineStr">
         <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H151" s="4" t="inlineStr">
+        <is>
+          <t>Quiz 4 - SQL Basics</t>
+        </is>
+      </c>
+      <c r="I151" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072331</t>
+        </is>
+      </c>
+      <c r="J151" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K151" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 3/27, THU</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="inlineStr">
+        <is>
+          <t>lecture-17.qmd</t>
+        </is>
+      </c>
+      <c r="B152" s="4" t="inlineStr">
+        <is>
+          <t>SQL Toolset</t>
+        </is>
+      </c>
+      <c r="C152" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="D152" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F152" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="G152" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H151" s="4" t="inlineStr">
+      <c r="H152" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I151" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J151" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K151" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="4" t="inlineStr"/>
-      <c r="B152" s="4" t="inlineStr"/>
-      <c r="C152" s="5" t="inlineStr"/>
-      <c r="D152" s="5" t="inlineStr"/>
-      <c r="E152" s="5" t="inlineStr"/>
-      <c r="F152" s="5" t="inlineStr"/>
-      <c r="G152" s="4" t="inlineStr"/>
-      <c r="H152" s="4" t="inlineStr"/>
-      <c r="I152" s="4" t="inlineStr"/>
-      <c r="J152" s="4" t="inlineStr"/>
-      <c r="K152" s="4" t="inlineStr"/>
+      <c r="I152" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J152" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K152" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" s="4" t="inlineStr">
-        <is>
-          <t>lecture-19.qmd</t>
-        </is>
-      </c>
-      <c r="B153" s="4" t="inlineStr">
-        <is>
-          <t>More C-R-U-D</t>
-        </is>
-      </c>
-      <c r="C153" s="5" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="D153" s="5" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E153" s="5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="F153" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="G153" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H153" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I153" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J153" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K153" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A153" s="4" t="inlineStr"/>
+      <c r="B153" s="4" t="inlineStr"/>
+      <c r="C153" s="5" t="inlineStr"/>
+      <c r="D153" s="5" t="inlineStr"/>
+      <c r="E153" s="5" t="inlineStr"/>
+      <c r="F153" s="5" t="inlineStr"/>
+      <c r="G153" s="4" t="inlineStr"/>
+      <c r="H153" s="4" t="inlineStr"/>
+      <c r="I153" s="4" t="inlineStr"/>
+      <c r="J153" s="4" t="inlineStr"/>
+      <c r="K153" s="4" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
         <is>
-          <t>lecture-19.qmd</t>
+          <t>lecture-18.qmd</t>
         </is>
       </c>
       <c r="B154" s="4" t="inlineStr">
         <is>
-          <t>More C-R-U-D</t>
+          <t>SQL C-R-U-D</t>
         </is>
       </c>
       <c r="C154" s="5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D154" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E154" s="5" t="inlineStr">
@@ -8146,53 +8188,53 @@
         </is>
       </c>
       <c r="F154" s="5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G154" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H154" s="4" t="inlineStr">
         <is>
-          <t>Quiz 4 - SQL Basics</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I154" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072331</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J154" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K154" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/27, THU</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="4" t="inlineStr">
         <is>
-          <t>lecture-19.qmd</t>
+          <t>lecture-18.qmd</t>
         </is>
       </c>
       <c r="B155" s="4" t="inlineStr">
         <is>
-          <t>More C-R-U-D</t>
+          <t>SQL C-R-U-D</t>
         </is>
       </c>
       <c r="C155" s="5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D155" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E155" s="5" t="inlineStr">
@@ -8201,7 +8243,7 @@
         </is>
       </c>
       <c r="F155" s="5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G155" s="4" t="inlineStr">
         <is>
@@ -8210,12 +8252,12 @@
       </c>
       <c r="H155" s="4" t="inlineStr">
         <is>
-          <t>Deliverable 6 - Docker Scaffold</t>
+          <t>Quiz 4 - SQL Basics</t>
         </is>
       </c>
       <c r="I155" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075772</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072331</t>
         </is>
       </c>
       <c r="J155" s="4" t="inlineStr">
@@ -8225,29 +8267,29 @@
       </c>
       <c r="K155" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 3/30, SUN</t>
+          <t xml:space="preserve"> - due 3/27, THU</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
         <is>
-          <t>lecture-19.qmd</t>
+          <t>lecture-18.qmd</t>
         </is>
       </c>
       <c r="B156" s="4" t="inlineStr">
         <is>
-          <t>More C-R-U-D</t>
+          <t>SQL C-R-U-D</t>
         </is>
       </c>
       <c r="C156" s="5" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="D156" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E156" s="5" t="inlineStr">
@@ -8256,239 +8298,281 @@
         </is>
       </c>
       <c r="F156" s="5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G156" s="4" t="inlineStr">
         <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H156" s="4" t="inlineStr">
+        <is>
+          <t>Deliverable 6 - Docker Scaffold</t>
+        </is>
+      </c>
+      <c r="I156" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075772</t>
+        </is>
+      </c>
+      <c r="J156" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K156" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 3/30, SUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="4" t="inlineStr">
+        <is>
+          <t>lecture-18.qmd</t>
+        </is>
+      </c>
+      <c r="B157" s="4" t="inlineStr">
+        <is>
+          <t>SQL C-R-U-D</t>
+        </is>
+      </c>
+      <c r="C157" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="D157" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E157" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F157" s="5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" s="4" t="inlineStr">
+        <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H156" s="4" t="inlineStr">
+      <c r="H157" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I156" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J156" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K156" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="4" t="inlineStr"/>
-      <c r="B157" s="4" t="inlineStr"/>
-      <c r="C157" s="5" t="inlineStr"/>
-      <c r="D157" s="5" t="inlineStr"/>
-      <c r="E157" s="5" t="inlineStr"/>
-      <c r="F157" s="5" t="inlineStr"/>
-      <c r="G157" s="4" t="inlineStr"/>
-      <c r="H157" s="4" t="inlineStr"/>
-      <c r="I157" s="4" t="inlineStr"/>
-      <c r="J157" s="4" t="inlineStr"/>
-      <c r="K157" s="4" t="inlineStr"/>
+      <c r="I157" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J157" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K157" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
-      <c r="A158" s="4" t="inlineStr">
-        <is>
-          <t>lecture-20.qmd</t>
-        </is>
-      </c>
-      <c r="B158" s="4" t="inlineStr">
-        <is>
-          <t>Even more C-R-U-D</t>
-        </is>
-      </c>
-      <c r="C158" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="D158" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E158" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F158" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G158" s="4" t="inlineStr">
-        <is>
-          <t>discussion</t>
-        </is>
-      </c>
-      <c r="H158" s="4" t="inlineStr">
-        <is>
-          <t>This is a placeholder Lecture.</t>
-        </is>
-      </c>
-      <c r="I158" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J158" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K158" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
+      <c r="A158" s="4" t="inlineStr"/>
+      <c r="B158" s="4" t="inlineStr"/>
+      <c r="C158" s="5" t="inlineStr"/>
+      <c r="D158" s="5" t="inlineStr"/>
+      <c r="E158" s="5" t="inlineStr"/>
+      <c r="F158" s="5" t="inlineStr"/>
+      <c r="G158" s="4" t="inlineStr"/>
+      <c r="H158" s="4" t="inlineStr"/>
+      <c r="I158" s="4" t="inlineStr"/>
+      <c r="J158" s="4" t="inlineStr"/>
+      <c r="K158" s="4" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
         <is>
-          <t>lecture-20.qmd</t>
+          <t>lecture-19.qmd</t>
         </is>
       </c>
       <c r="B159" s="4" t="inlineStr">
         <is>
-          <t>Even more C-R-U-D</t>
+          <t>More C-R-U-D</t>
         </is>
       </c>
       <c r="C159" s="5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D159" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E159" s="5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F159" s="5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G159" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H159" s="4" t="inlineStr">
         <is>
-          <t>Homework 6 - Constructing a database</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I159" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072343</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J159" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K159" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 4/06, SUN</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
         <is>
-          <t>lecture-20.qmd</t>
+          <t>lecture-19.qmd</t>
         </is>
       </c>
       <c r="B160" s="4" t="inlineStr">
         <is>
-          <t>Even more C-R-U-D</t>
+          <t>More C-R-U-D</t>
         </is>
       </c>
       <c r="C160" s="5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D160" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E160" s="5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F160" s="5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G160" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>deliverable</t>
         </is>
       </c>
       <c r="H160" s="4" t="inlineStr">
         <is>
-          <t>When ready, the complete lecture will replace this one.</t>
+          <t>Quiz 4 - SQL Basics</t>
         </is>
       </c>
       <c r="I160" s="4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072331</t>
         </is>
       </c>
       <c r="J160" s="4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>target="_blank"</t>
         </is>
       </c>
       <c r="K160" s="4" t="inlineStr">
         <is>
-          <t>.</t>
+          <t xml:space="preserve"> - due 3/27, THU</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="4" t="inlineStr"/>
-      <c r="B161" s="4" t="inlineStr"/>
-      <c r="C161" s="5" t="inlineStr"/>
-      <c r="D161" s="5" t="inlineStr"/>
-      <c r="E161" s="5" t="inlineStr"/>
-      <c r="F161" s="5" t="inlineStr"/>
-      <c r="G161" s="4" t="inlineStr"/>
-      <c r="H161" s="4" t="inlineStr"/>
-      <c r="I161" s="4" t="inlineStr"/>
-      <c r="J161" s="4" t="inlineStr"/>
-      <c r="K161" s="4" t="inlineStr"/>
+      <c r="A161" s="4" t="inlineStr">
+        <is>
+          <t>lecture-19.qmd</t>
+        </is>
+      </c>
+      <c r="B161" s="4" t="inlineStr">
+        <is>
+          <t>More C-R-U-D</t>
+        </is>
+      </c>
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="D161" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E161" s="5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F161" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G161" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H161" s="4" t="inlineStr">
+        <is>
+          <t>Deliverable 6 - Docker Scaffold</t>
+        </is>
+      </c>
+      <c r="I161" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075772</t>
+        </is>
+      </c>
+      <c r="J161" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K161" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 3/30, SUN</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="4" t="inlineStr">
         <is>
-          <t>lecture-21.qmd</t>
+          <t>lecture-19.qmd</t>
         </is>
       </c>
       <c r="B162" s="4" t="inlineStr">
         <is>
-          <t>Joins and Selects 1</t>
+          <t>More C-R-U-D</t>
         </is>
       </c>
       <c r="C162" s="5" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="D162" s="5" t="inlineStr">
@@ -8498,20 +8582,20 @@
       </c>
       <c r="E162" s="5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F162" s="5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G162" s="4" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H162" s="4" t="inlineStr">
         <is>
-          <t>This is a placeholder Lecture.</t>
+          <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
       <c r="I162" s="4" t="inlineStr">
@@ -8531,79 +8615,37 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="4" t="inlineStr">
-        <is>
-          <t>lecture-21.qmd</t>
-        </is>
-      </c>
-      <c r="B163" s="4" t="inlineStr">
-        <is>
-          <t>Joins and Selects 1</t>
-        </is>
-      </c>
-      <c r="C163" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-03</t>
-        </is>
-      </c>
-      <c r="D163" s="5" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E163" s="5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="F163" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="G163" s="4" t="inlineStr">
-        <is>
-          <t>deliverable</t>
-        </is>
-      </c>
-      <c r="H163" s="4" t="inlineStr">
-        <is>
-          <t>Homework 6 - Constructing a database</t>
-        </is>
-      </c>
-      <c r="I163" s="4" t="inlineStr">
-        <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072343</t>
-        </is>
-      </c>
-      <c r="J163" s="4" t="inlineStr">
-        <is>
-          <t>target="_blank"</t>
-        </is>
-      </c>
-      <c r="K163" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - due 4/06, SUN</t>
-        </is>
-      </c>
+      <c r="A163" s="4" t="inlineStr"/>
+      <c r="B163" s="4" t="inlineStr"/>
+      <c r="C163" s="5" t="inlineStr"/>
+      <c r="D163" s="5" t="inlineStr"/>
+      <c r="E163" s="5" t="inlineStr"/>
+      <c r="F163" s="5" t="inlineStr"/>
+      <c r="G163" s="4" t="inlineStr"/>
+      <c r="H163" s="4" t="inlineStr"/>
+      <c r="I163" s="4" t="inlineStr"/>
+      <c r="J163" s="4" t="inlineStr"/>
+      <c r="K163" s="4" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="4" t="inlineStr">
         <is>
-          <t>lecture-21.qmd</t>
+          <t>lecture-20.qmd</t>
         </is>
       </c>
       <c r="B164" s="4" t="inlineStr">
         <is>
-          <t>Joins and Selects 1</t>
+          <t>Even more C-R-U-D</t>
         </is>
       </c>
       <c r="C164" s="5" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D164" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E164" s="5" t="inlineStr">
@@ -8612,16 +8654,16 @@
         </is>
       </c>
       <c r="F164" s="5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G164" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H164" s="4" t="inlineStr">
         <is>
-          <t>When ready, the complete lecture will replace this one.</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I164" s="4" t="inlineStr">
@@ -8641,32 +8683,74 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="4" t="inlineStr"/>
-      <c r="B165" s="4" t="inlineStr"/>
-      <c r="C165" s="5" t="inlineStr"/>
-      <c r="D165" s="5" t="inlineStr"/>
-      <c r="E165" s="5" t="inlineStr"/>
-      <c r="F165" s="5" t="inlineStr"/>
-      <c r="G165" s="4" t="inlineStr"/>
-      <c r="H165" s="4" t="inlineStr"/>
-      <c r="I165" s="4" t="inlineStr"/>
-      <c r="J165" s="4" t="inlineStr"/>
-      <c r="K165" s="4" t="inlineStr"/>
+      <c r="A165" s="4" t="inlineStr">
+        <is>
+          <t>lecture-20.qmd</t>
+        </is>
+      </c>
+      <c r="B165" s="4" t="inlineStr">
+        <is>
+          <t>Even more C-R-U-D</t>
+        </is>
+      </c>
+      <c r="C165" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D165" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E165" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F165" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G165" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H165" s="4" t="inlineStr">
+        <is>
+          <t>Homework 6 - Constructing a database</t>
+        </is>
+      </c>
+      <c r="I165" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072343</t>
+        </is>
+      </c>
+      <c r="J165" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K165" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/06, SUN</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="4" t="inlineStr">
         <is>
-          <t>lecture-22.qmd</t>
+          <t>lecture-20.qmd</t>
         </is>
       </c>
       <c r="B166" s="4" t="inlineStr">
         <is>
-          <t>Joins and Selects 2</t>
+          <t>Even more C-R-U-D</t>
         </is>
       </c>
       <c r="C166" s="5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="D166" s="5" t="inlineStr">
@@ -8676,20 +8760,20 @@
       </c>
       <c r="E166" s="5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F166" s="5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G166" s="4" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H166" s="4" t="inlineStr">
         <is>
-          <t>This is a placeholder Lecture.</t>
+          <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
       <c r="I166" s="4" t="inlineStr">
@@ -8709,97 +8793,55 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="4" t="inlineStr">
-        <is>
-          <t>lecture-22.qmd</t>
-        </is>
-      </c>
-      <c r="B167" s="4" t="inlineStr">
-        <is>
-          <t>Joins and Selects 2</t>
-        </is>
-      </c>
-      <c r="C167" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="D167" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E167" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="F167" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G167" s="4" t="inlineStr">
-        <is>
-          <t>deliverable</t>
-        </is>
-      </c>
-      <c r="H167" s="4" t="inlineStr">
-        <is>
-          <t>Homework 7 - Joining tables and reporting</t>
-        </is>
-      </c>
-      <c r="I167" s="4" t="inlineStr">
-        <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072345</t>
-        </is>
-      </c>
-      <c r="J167" s="4" t="inlineStr">
-        <is>
-          <t>target="_blank"</t>
-        </is>
-      </c>
-      <c r="K167" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - due 4/13, SUN</t>
-        </is>
-      </c>
+      <c r="A167" s="4" t="inlineStr"/>
+      <c r="B167" s="4" t="inlineStr"/>
+      <c r="C167" s="5" t="inlineStr"/>
+      <c r="D167" s="5" t="inlineStr"/>
+      <c r="E167" s="5" t="inlineStr"/>
+      <c r="F167" s="5" t="inlineStr"/>
+      <c r="G167" s="4" t="inlineStr"/>
+      <c r="H167" s="4" t="inlineStr"/>
+      <c r="I167" s="4" t="inlineStr"/>
+      <c r="J167" s="4" t="inlineStr"/>
+      <c r="K167" s="4" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
         <is>
-          <t>lecture-22.qmd</t>
+          <t>lecture-21.qmd</t>
         </is>
       </c>
       <c r="B168" s="4" t="inlineStr">
         <is>
-          <t>Joins and Selects 2</t>
+          <t>Joins and Selects 1</t>
         </is>
       </c>
       <c r="C168" s="5" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D168" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E168" s="5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F168" s="5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G168" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H168" s="4" t="inlineStr">
         <is>
-          <t>When ready, the complete lecture will replace this one.</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I168" s="4" t="inlineStr">
@@ -8819,32 +8861,74 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="4" t="inlineStr"/>
-      <c r="B169" s="4" t="inlineStr"/>
-      <c r="C169" s="5" t="inlineStr"/>
-      <c r="D169" s="5" t="inlineStr"/>
-      <c r="E169" s="5" t="inlineStr"/>
-      <c r="F169" s="5" t="inlineStr"/>
-      <c r="G169" s="4" t="inlineStr"/>
-      <c r="H169" s="4" t="inlineStr"/>
-      <c r="I169" s="4" t="inlineStr"/>
-      <c r="J169" s="4" t="inlineStr"/>
-      <c r="K169" s="4" t="inlineStr"/>
+      <c r="A169" s="4" t="inlineStr">
+        <is>
+          <t>lecture-21.qmd</t>
+        </is>
+      </c>
+      <c r="B169" s="4" t="inlineStr">
+        <is>
+          <t>Joins and Selects 1</t>
+        </is>
+      </c>
+      <c r="C169" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E169" s="5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F169" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G169" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H169" s="4" t="inlineStr">
+        <is>
+          <t>Homework 6 - Constructing a database</t>
+        </is>
+      </c>
+      <c r="I169" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072343</t>
+        </is>
+      </c>
+      <c r="J169" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K169" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/06, SUN</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
         <is>
-          <t>lecture-23.qmd</t>
+          <t>lecture-21.qmd</t>
         </is>
       </c>
       <c r="B170" s="4" t="inlineStr">
         <is>
-          <t>Aggregates 1</t>
+          <t>Joins and Selects 1</t>
         </is>
       </c>
       <c r="C170" s="5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="D170" s="5" t="inlineStr">
@@ -8854,20 +8938,20 @@
       </c>
       <c r="E170" s="5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F170" s="5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G170" s="4" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H170" s="4" t="inlineStr">
         <is>
-          <t>This is a placeholder Lecture.</t>
+          <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
       <c r="I170" s="4" t="inlineStr">
@@ -8887,79 +8971,37 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="4" t="inlineStr">
-        <is>
-          <t>lecture-23.qmd</t>
-        </is>
-      </c>
-      <c r="B171" s="4" t="inlineStr">
-        <is>
-          <t>Aggregates 1</t>
-        </is>
-      </c>
-      <c r="C171" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-10</t>
-        </is>
-      </c>
-      <c r="D171" s="5" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E171" s="5" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="F171" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="G171" s="4" t="inlineStr">
-        <is>
-          <t>deliverable</t>
-        </is>
-      </c>
-      <c r="H171" s="4" t="inlineStr">
-        <is>
-          <t>Homework 7 - Joining tables and reporting</t>
-        </is>
-      </c>
-      <c r="I171" s="4" t="inlineStr">
-        <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072345</t>
-        </is>
-      </c>
-      <c r="J171" s="4" t="inlineStr">
-        <is>
-          <t>target="_blank"</t>
-        </is>
-      </c>
-      <c r="K171" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - due 4/13, SUN</t>
-        </is>
-      </c>
+      <c r="A171" s="4" t="inlineStr"/>
+      <c r="B171" s="4" t="inlineStr"/>
+      <c r="C171" s="5" t="inlineStr"/>
+      <c r="D171" s="5" t="inlineStr"/>
+      <c r="E171" s="5" t="inlineStr"/>
+      <c r="F171" s="5" t="inlineStr"/>
+      <c r="G171" s="4" t="inlineStr"/>
+      <c r="H171" s="4" t="inlineStr"/>
+      <c r="I171" s="4" t="inlineStr"/>
+      <c r="J171" s="4" t="inlineStr"/>
+      <c r="K171" s="4" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
         <is>
-          <t>lecture-23.qmd</t>
+          <t>lecture-22.qmd</t>
         </is>
       </c>
       <c r="B172" s="4" t="inlineStr">
         <is>
-          <t>Aggregates 1</t>
+          <t>Joins and Selects 2</t>
         </is>
       </c>
       <c r="C172" s="5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D172" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E172" s="5" t="inlineStr">
@@ -8968,16 +9010,16 @@
         </is>
       </c>
       <c r="F172" s="5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G172" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H172" s="4" t="inlineStr">
         <is>
-          <t>When ready, the complete lecture will replace this one.</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I172" s="4" t="inlineStr">
@@ -8997,32 +9039,74 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="inlineStr"/>
-      <c r="B173" s="4" t="inlineStr"/>
-      <c r="C173" s="5" t="inlineStr"/>
-      <c r="D173" s="5" t="inlineStr"/>
-      <c r="E173" s="5" t="inlineStr"/>
-      <c r="F173" s="5" t="inlineStr"/>
-      <c r="G173" s="4" t="inlineStr"/>
-      <c r="H173" s="4" t="inlineStr"/>
-      <c r="I173" s="4" t="inlineStr"/>
-      <c r="J173" s="4" t="inlineStr"/>
-      <c r="K173" s="4" t="inlineStr"/>
+      <c r="A173" s="4" t="inlineStr">
+        <is>
+          <t>lecture-22.qmd</t>
+        </is>
+      </c>
+      <c r="B173" s="4" t="inlineStr">
+        <is>
+          <t>Joins and Selects 2</t>
+        </is>
+      </c>
+      <c r="C173" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="D173" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E173" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F173" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G173" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H173" s="4" t="inlineStr">
+        <is>
+          <t>Homework 7 - Joining tables and reporting</t>
+        </is>
+      </c>
+      <c r="I173" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072345</t>
+        </is>
+      </c>
+      <c r="J173" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K173" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/13, SUN</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="4" t="inlineStr">
         <is>
-          <t>lecture-24.qmd</t>
+          <t>lecture-22.qmd</t>
         </is>
       </c>
       <c r="B174" s="4" t="inlineStr">
         <is>
-          <t>Subqueries and WITH 1</t>
+          <t>Joins and Selects 2</t>
         </is>
       </c>
       <c r="C174" s="5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-08</t>
         </is>
       </c>
       <c r="D174" s="5" t="inlineStr">
@@ -9032,20 +9116,20 @@
       </c>
       <c r="E174" s="5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F174" s="5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G174" s="4" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H174" s="4" t="inlineStr">
         <is>
-          <t>This is a placeholder Lecture.</t>
+          <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
       <c r="I174" s="4" t="inlineStr">
@@ -9065,97 +9149,55 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="4" t="inlineStr">
-        <is>
-          <t>lecture-24.qmd</t>
-        </is>
-      </c>
-      <c r="B175" s="4" t="inlineStr">
-        <is>
-          <t>Subqueries and WITH 1</t>
-        </is>
-      </c>
-      <c r="C175" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="D175" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E175" s="5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F175" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="G175" s="4" t="inlineStr">
-        <is>
-          <t>deliverable</t>
-        </is>
-      </c>
-      <c r="H175" s="4" t="inlineStr">
-        <is>
-          <t>Homework 8 - SQL Funhouse</t>
-        </is>
-      </c>
-      <c r="I175" s="4" t="inlineStr">
-        <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072347</t>
-        </is>
-      </c>
-      <c r="J175" s="4" t="inlineStr">
-        <is>
-          <t>target="_blank"</t>
-        </is>
-      </c>
-      <c r="K175" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - due 4/20, SUN</t>
-        </is>
-      </c>
+      <c r="A175" s="4" t="inlineStr"/>
+      <c r="B175" s="4" t="inlineStr"/>
+      <c r="C175" s="5" t="inlineStr"/>
+      <c r="D175" s="5" t="inlineStr"/>
+      <c r="E175" s="5" t="inlineStr"/>
+      <c r="F175" s="5" t="inlineStr"/>
+      <c r="G175" s="4" t="inlineStr"/>
+      <c r="H175" s="4" t="inlineStr"/>
+      <c r="I175" s="4" t="inlineStr"/>
+      <c r="J175" s="4" t="inlineStr"/>
+      <c r="K175" s="4" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
         <is>
-          <t>lecture-24.qmd</t>
+          <t>lecture-23.qmd</t>
         </is>
       </c>
       <c r="B176" s="4" t="inlineStr">
         <is>
-          <t>Subqueries and WITH 1</t>
+          <t>Aggregates 1</t>
         </is>
       </c>
       <c r="C176" s="5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D176" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E176" s="5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F176" s="5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G176" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H176" s="4" t="inlineStr">
         <is>
-          <t>When ready, the complete lecture will replace this one.</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I176" s="4" t="inlineStr">
@@ -9175,32 +9217,74 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="4" t="inlineStr"/>
-      <c r="B177" s="4" t="inlineStr"/>
-      <c r="C177" s="5" t="inlineStr"/>
-      <c r="D177" s="5" t="inlineStr"/>
-      <c r="E177" s="5" t="inlineStr"/>
-      <c r="F177" s="5" t="inlineStr"/>
-      <c r="G177" s="4" t="inlineStr"/>
-      <c r="H177" s="4" t="inlineStr"/>
-      <c r="I177" s="4" t="inlineStr"/>
-      <c r="J177" s="4" t="inlineStr"/>
-      <c r="K177" s="4" t="inlineStr"/>
+      <c r="A177" s="4" t="inlineStr">
+        <is>
+          <t>lecture-23.qmd</t>
+        </is>
+      </c>
+      <c r="B177" s="4" t="inlineStr">
+        <is>
+          <t>Aggregates 1</t>
+        </is>
+      </c>
+      <c r="C177" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E177" s="5" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F177" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="G177" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H177" s="4" t="inlineStr">
+        <is>
+          <t>Homework 7 - Joining tables and reporting</t>
+        </is>
+      </c>
+      <c r="I177" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072345</t>
+        </is>
+      </c>
+      <c r="J177" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K177" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/13, SUN</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
         <is>
-          <t>lecture-25.qmd</t>
+          <t>lecture-23.qmd</t>
         </is>
       </c>
       <c r="B178" s="4" t="inlineStr">
         <is>
-          <t>Subqueries and WITH 2</t>
+          <t>Aggregates 1</t>
         </is>
       </c>
       <c r="C178" s="5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="D178" s="5" t="inlineStr">
@@ -9210,20 +9294,20 @@
       </c>
       <c r="E178" s="5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F178" s="5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G178" s="4" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H178" s="4" t="inlineStr">
         <is>
-          <t>This is a placeholder Lecture.</t>
+          <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
       <c r="I178" s="4" t="inlineStr">
@@ -9243,79 +9327,37 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="4" t="inlineStr">
-        <is>
-          <t>lecture-25.qmd</t>
-        </is>
-      </c>
-      <c r="B179" s="4" t="inlineStr">
-        <is>
-          <t>Subqueries and WITH 2</t>
-        </is>
-      </c>
-      <c r="C179" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="D179" s="5" t="inlineStr">
-        <is>
-          <t>Thu</t>
-        </is>
-      </c>
-      <c r="E179" s="5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F179" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="G179" s="4" t="inlineStr">
-        <is>
-          <t>deliverable</t>
-        </is>
-      </c>
-      <c r="H179" s="4" t="inlineStr">
-        <is>
-          <t>Homework 8 - SQL Funhouse</t>
-        </is>
-      </c>
-      <c r="I179" s="4" t="inlineStr">
-        <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072347</t>
-        </is>
-      </c>
-      <c r="J179" s="4" t="inlineStr">
-        <is>
-          <t>target="_blank"</t>
-        </is>
-      </c>
-      <c r="K179" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - due 4/20, SUN</t>
-        </is>
-      </c>
+      <c r="A179" s="4" t="inlineStr"/>
+      <c r="B179" s="4" t="inlineStr"/>
+      <c r="C179" s="5" t="inlineStr"/>
+      <c r="D179" s="5" t="inlineStr"/>
+      <c r="E179" s="5" t="inlineStr"/>
+      <c r="F179" s="5" t="inlineStr"/>
+      <c r="G179" s="4" t="inlineStr"/>
+      <c r="H179" s="4" t="inlineStr"/>
+      <c r="I179" s="4" t="inlineStr"/>
+      <c r="J179" s="4" t="inlineStr"/>
+      <c r="K179" s="4" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="4" t="inlineStr">
         <is>
-          <t>lecture-25.qmd</t>
+          <t>lecture-24.qmd</t>
         </is>
       </c>
       <c r="B180" s="4" t="inlineStr">
         <is>
-          <t>Subqueries and WITH 2</t>
+          <t>Subqueries and WITH 1</t>
         </is>
       </c>
       <c r="C180" s="5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="D180" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E180" s="5" t="inlineStr">
@@ -9324,16 +9366,16 @@
         </is>
       </c>
       <c r="F180" s="5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G180" s="4" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H180" s="4" t="inlineStr">
         <is>
-          <t>When ready, the complete lecture will replace this one.</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I180" s="4" t="inlineStr">
@@ -9353,32 +9395,74 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="4" t="inlineStr"/>
-      <c r="B181" s="4" t="inlineStr"/>
-      <c r="C181" s="5" t="inlineStr"/>
-      <c r="D181" s="5" t="inlineStr"/>
-      <c r="E181" s="5" t="inlineStr"/>
-      <c r="F181" s="5" t="inlineStr"/>
-      <c r="G181" s="4" t="inlineStr"/>
-      <c r="H181" s="4" t="inlineStr"/>
-      <c r="I181" s="4" t="inlineStr"/>
-      <c r="J181" s="4" t="inlineStr"/>
-      <c r="K181" s="4" t="inlineStr"/>
+      <c r="A181" s="4" t="inlineStr">
+        <is>
+          <t>lecture-24.qmd</t>
+        </is>
+      </c>
+      <c r="B181" s="4" t="inlineStr">
+        <is>
+          <t>Subqueries and WITH 1</t>
+        </is>
+      </c>
+      <c r="C181" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="D181" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E181" s="5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F181" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G181" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H181" s="4" t="inlineStr">
+        <is>
+          <t>Homework 8 - SQL Funhouse</t>
+        </is>
+      </c>
+      <c r="I181" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072347</t>
+        </is>
+      </c>
+      <c r="J181" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K181" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/20, SUN</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="4" t="inlineStr">
         <is>
-          <t>lecture-26.qmd</t>
+          <t>lecture-24.qmd</t>
         </is>
       </c>
       <c r="B182" s="4" t="inlineStr">
         <is>
-          <t>Views and Indexes</t>
+          <t>Subqueries and WITH 1</t>
         </is>
       </c>
       <c r="C182" s="5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="D182" s="5" t="inlineStr">
@@ -9388,20 +9472,20 @@
       </c>
       <c r="E182" s="5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F182" s="5" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G182" s="4" t="inlineStr">
         <is>
-          <t>discussion</t>
+          <t>include</t>
         </is>
       </c>
       <c r="H182" s="4" t="inlineStr">
         <is>
-          <t>This is a placeholder Lecture.</t>
+          <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
       <c r="I182" s="4" t="inlineStr">
@@ -9421,143 +9505,101 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="4" t="inlineStr">
-        <is>
-          <t>lecture-26.qmd</t>
-        </is>
-      </c>
-      <c r="B183" s="4" t="inlineStr">
-        <is>
-          <t>Views and Indexes</t>
-        </is>
-      </c>
-      <c r="C183" s="5" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="D183" s="5" t="inlineStr">
-        <is>
-          <t>Tue</t>
-        </is>
-      </c>
-      <c r="E183" s="5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="F183" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="G183" s="4" t="inlineStr">
-        <is>
-          <t>deliverable</t>
-        </is>
-      </c>
-      <c r="H183" s="4" t="inlineStr">
-        <is>
-          <t>Homework 9 - Even more on SQL</t>
-        </is>
-      </c>
-      <c r="I183" s="4" t="inlineStr">
-        <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072349</t>
-        </is>
-      </c>
-      <c r="J183" s="4" t="inlineStr">
-        <is>
-          <t>target="_blank"</t>
-        </is>
-      </c>
-      <c r="K183" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - due 4/27, SUN</t>
-        </is>
-      </c>
+      <c r="A183" s="4" t="inlineStr"/>
+      <c r="B183" s="4" t="inlineStr"/>
+      <c r="C183" s="5" t="inlineStr"/>
+      <c r="D183" s="5" t="inlineStr"/>
+      <c r="E183" s="5" t="inlineStr"/>
+      <c r="F183" s="5" t="inlineStr"/>
+      <c r="G183" s="4" t="inlineStr"/>
+      <c r="H183" s="4" t="inlineStr"/>
+      <c r="I183" s="4" t="inlineStr"/>
+      <c r="J183" s="4" t="inlineStr"/>
+      <c r="K183" s="4" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
         <is>
-          <t>lecture-26.qmd</t>
+          <t>lecture-25.qmd</t>
         </is>
       </c>
       <c r="B184" s="4" t="inlineStr">
         <is>
-          <t>Views and Indexes</t>
+          <t>Subqueries and WITH 2</t>
         </is>
       </c>
       <c r="C184" s="5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="D184" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E184" s="5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F184" s="5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G184" s="4" t="inlineStr">
         <is>
-          <t>deliverable</t>
+          <t>discussion</t>
         </is>
       </c>
       <c r="H184" s="4" t="inlineStr">
         <is>
-          <t>Deliverable 7 - Final Submission</t>
+          <t>This is a placeholder Lecture.</t>
         </is>
       </c>
       <c r="I184" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075774</t>
+          <t>.</t>
         </is>
       </c>
       <c r="J184" s="4" t="inlineStr">
         <is>
-          <t>target="_blank"</t>
+          <t>.</t>
         </is>
       </c>
       <c r="K184" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 4/29, TUE</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="4" t="inlineStr">
         <is>
-          <t>lecture-26.qmd</t>
+          <t>lecture-25.qmd</t>
         </is>
       </c>
       <c r="B185" s="4" t="inlineStr">
         <is>
-          <t>Views and Indexes</t>
+          <t>Subqueries and WITH 2</t>
         </is>
       </c>
       <c r="C185" s="5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="D185" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E185" s="5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F185" s="5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G185" s="4" t="inlineStr">
         <is>
@@ -9566,12 +9608,12 @@
       </c>
       <c r="H185" s="4" t="inlineStr">
         <is>
-          <t>Survey 2 - Course evaluation</t>
+          <t>Homework 8 - SQL Funhouse</t>
         </is>
       </c>
       <c r="I185" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081397</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072347</t>
         </is>
       </c>
       <c r="J185" s="4" t="inlineStr">
@@ -9581,38 +9623,38 @@
       </c>
       <c r="K185" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 4/29, TUE</t>
+          <t xml:space="preserve"> - due 4/20, SUN</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="4" t="inlineStr">
         <is>
-          <t>lecture-26.qmd</t>
+          <t>lecture-25.qmd</t>
         </is>
       </c>
       <c r="B186" s="4" t="inlineStr">
         <is>
-          <t>Views and Indexes</t>
+          <t>Subqueries and WITH 2</t>
         </is>
       </c>
       <c r="C186" s="5" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="D186" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E186" s="5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F186" s="5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G186" s="4" t="inlineStr">
         <is>
@@ -9656,22 +9698,22 @@
     <row r="188">
       <c r="A188" s="4" t="inlineStr">
         <is>
-          <t>lecture-27.qmd</t>
+          <t>lecture-26.qmd</t>
         </is>
       </c>
       <c r="B188" s="4" t="inlineStr">
         <is>
-          <t>Procedures and Functions</t>
+          <t>Views and Indexes</t>
         </is>
       </c>
       <c r="C188" s="5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="D188" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E188" s="5" t="inlineStr">
@@ -9680,7 +9722,7 @@
         </is>
       </c>
       <c r="F188" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G188" s="4" t="inlineStr">
         <is>
@@ -9711,22 +9753,22 @@
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
         <is>
-          <t>lecture-27.qmd</t>
+          <t>lecture-26.qmd</t>
         </is>
       </c>
       <c r="B189" s="4" t="inlineStr">
         <is>
-          <t>Procedures and Functions</t>
+          <t>Views and Indexes</t>
         </is>
       </c>
       <c r="C189" s="5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="D189" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E189" s="5" t="inlineStr">
@@ -9735,7 +9777,7 @@
         </is>
       </c>
       <c r="F189" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G189" s="4" t="inlineStr">
         <is>
@@ -9766,22 +9808,22 @@
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
         <is>
-          <t>lecture-27.qmd</t>
+          <t>lecture-26.qmd</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>Procedures and Functions</t>
+          <t>Views and Indexes</t>
         </is>
       </c>
       <c r="C190" s="5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="D190" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E190" s="5" t="inlineStr">
@@ -9790,7 +9832,7 @@
         </is>
       </c>
       <c r="F190" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G190" s="4" t="inlineStr">
         <is>
@@ -9821,22 +9863,22 @@
     <row r="191">
       <c r="A191" s="4" t="inlineStr">
         <is>
-          <t>lecture-27.qmd</t>
+          <t>lecture-26.qmd</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>Procedures and Functions</t>
+          <t>Views and Indexes</t>
         </is>
       </c>
       <c r="C191" s="5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="D191" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E191" s="5" t="inlineStr">
@@ -9845,7 +9887,7 @@
         </is>
       </c>
       <c r="F191" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G191" s="4" t="inlineStr">
         <is>
@@ -9876,22 +9918,22 @@
     <row r="192">
       <c r="A192" s="4" t="inlineStr">
         <is>
-          <t>lecture-27.qmd</t>
+          <t>lecture-26.qmd</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>Procedures and Functions</t>
+          <t>Views and Indexes</t>
         </is>
       </c>
       <c r="C192" s="5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="D192" s="5" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="E192" s="5" t="inlineStr">
@@ -9900,7 +9942,7 @@
         </is>
       </c>
       <c r="F192" s="5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G192" s="4" t="inlineStr">
         <is>
@@ -9944,31 +9986,31 @@
     <row r="194">
       <c r="A194" s="4" t="inlineStr">
         <is>
-          <t>lecture-28.qmd</t>
+          <t>lecture-27.qmd</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>Triggers, Views and Security</t>
+          <t>Procedures and Functions</t>
         </is>
       </c>
       <c r="C194" s="5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="D194" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E194" s="5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F194" s="5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G194" s="4" t="inlineStr">
         <is>
@@ -9999,31 +10041,31 @@
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
         <is>
-          <t>lecture-28.qmd</t>
+          <t>lecture-27.qmd</t>
         </is>
       </c>
       <c r="B195" s="4" t="inlineStr">
         <is>
-          <t>Triggers, Views and Security</t>
+          <t>Procedures and Functions</t>
         </is>
       </c>
       <c r="C195" s="5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="D195" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E195" s="5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F195" s="5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G195" s="4" t="inlineStr">
         <is>
@@ -10032,12 +10074,12 @@
       </c>
       <c r="H195" s="4" t="inlineStr">
         <is>
-          <t>Deliverable 7 - Final Submission</t>
+          <t>Homework 9 - Even more on SQL</t>
         </is>
       </c>
       <c r="I195" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075774</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1072349</t>
         </is>
       </c>
       <c r="J195" s="4" t="inlineStr">
@@ -10047,38 +10089,38 @@
       </c>
       <c r="K195" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - due 4/29, TUE</t>
+          <t xml:space="preserve"> - due 4/27, SUN</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="4" t="inlineStr">
         <is>
-          <t>lecture-28.qmd</t>
+          <t>lecture-27.qmd</t>
         </is>
       </c>
       <c r="B196" s="4" t="inlineStr">
         <is>
-          <t>Triggers, Views and Security</t>
+          <t>Procedures and Functions</t>
         </is>
       </c>
       <c r="C196" s="5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="D196" s="5" t="inlineStr">
         <is>
-          <t>Tue</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="E196" s="5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F196" s="5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G196" s="4" t="inlineStr">
         <is>
@@ -10087,12 +10129,12 @@
       </c>
       <c r="H196" s="4" t="inlineStr">
         <is>
-          <t>Survey 2 - Course evaluation</t>
+          <t>Deliverable 7 - Final Submission</t>
         </is>
       </c>
       <c r="I196" s="4" t="inlineStr">
         <is>
-          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081397</t>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075774</t>
         </is>
       </c>
       <c r="J196" s="4" t="inlineStr">
@@ -10109,70 +10151,358 @@
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
         <is>
+          <t>lecture-27.qmd</t>
+        </is>
+      </c>
+      <c r="B197" s="4" t="inlineStr">
+        <is>
+          <t>Procedures and Functions</t>
+        </is>
+      </c>
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E197" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F197" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G197" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H197" s="4" t="inlineStr">
+        <is>
+          <t>Survey 2 - Course evaluation</t>
+        </is>
+      </c>
+      <c r="I197" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081397</t>
+        </is>
+      </c>
+      <c r="J197" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K197" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/29, TUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="4" t="inlineStr">
+        <is>
+          <t>lecture-27.qmd</t>
+        </is>
+      </c>
+      <c r="B198" s="4" t="inlineStr">
+        <is>
+          <t>Procedures and Functions</t>
+        </is>
+      </c>
+      <c r="C198" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="D198" s="5" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="E198" s="5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F198" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G198" s="4" t="inlineStr">
+        <is>
+          <t>include</t>
+        </is>
+      </c>
+      <c r="H198" s="4" t="inlineStr">
+        <is>
+          <t>When ready, the complete lecture will replace this one.</t>
+        </is>
+      </c>
+      <c r="I198" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J198" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K198" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="4" t="inlineStr"/>
+      <c r="B199" s="4" t="inlineStr"/>
+      <c r="C199" s="5" t="inlineStr"/>
+      <c r="D199" s="5" t="inlineStr"/>
+      <c r="E199" s="5" t="inlineStr"/>
+      <c r="F199" s="5" t="inlineStr"/>
+      <c r="G199" s="4" t="inlineStr"/>
+      <c r="H199" s="4" t="inlineStr"/>
+      <c r="I199" s="4" t="inlineStr"/>
+      <c r="J199" s="4" t="inlineStr"/>
+      <c r="K199" s="4" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="4" t="inlineStr">
+        <is>
           <t>lecture-28.qmd</t>
         </is>
       </c>
-      <c r="B197" s="4" t="inlineStr">
+      <c r="B200" s="4" t="inlineStr">
         <is>
           <t>Triggers, Views and Security</t>
         </is>
       </c>
-      <c r="C197" s="5" t="inlineStr">
+      <c r="C200" s="5" t="inlineStr">
         <is>
           <t>2025-04-29</t>
         </is>
       </c>
-      <c r="D197" s="5" t="inlineStr">
+      <c r="D200" s="5" t="inlineStr">
         <is>
           <t>Tue</t>
         </is>
       </c>
-      <c r="E197" s="5" t="inlineStr">
+      <c r="E200" s="5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="F197" s="5" t="n">
+      <c r="F200" s="5" t="n">
         <v>28</v>
       </c>
-      <c r="G197" s="4" t="inlineStr">
+      <c r="G200" s="4" t="inlineStr">
+        <is>
+          <t>discussion</t>
+        </is>
+      </c>
+      <c r="H200" s="4" t="inlineStr">
+        <is>
+          <t>This is a placeholder Lecture.</t>
+        </is>
+      </c>
+      <c r="I200" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J200" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K200" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="4" t="inlineStr">
+        <is>
+          <t>lecture-28.qmd</t>
+        </is>
+      </c>
+      <c r="B201" s="4" t="inlineStr">
+        <is>
+          <t>Triggers, Views and Security</t>
+        </is>
+      </c>
+      <c r="C201" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="D201" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E201" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F201" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="G201" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H201" s="4" t="inlineStr">
+        <is>
+          <t>Deliverable 7 - Final Submission</t>
+        </is>
+      </c>
+      <c r="I201" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1075774</t>
+        </is>
+      </c>
+      <c r="J201" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K201" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/29, TUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="4" t="inlineStr">
+        <is>
+          <t>lecture-28.qmd</t>
+        </is>
+      </c>
+      <c r="B202" s="4" t="inlineStr">
+        <is>
+          <t>Triggers, Views and Security</t>
+        </is>
+      </c>
+      <c r="C202" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="D202" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E202" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F202" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="G202" s="4" t="inlineStr">
+        <is>
+          <t>deliverable</t>
+        </is>
+      </c>
+      <c r="H202" s="4" t="inlineStr">
+        <is>
+          <t>Survey 2 - Course evaluation</t>
+        </is>
+      </c>
+      <c r="I202" s="4" t="inlineStr">
+        <is>
+          <t>https://virginiacommonwealth.instructure.com/courses/113813/assignments/1081397</t>
+        </is>
+      </c>
+      <c r="J202" s="4" t="inlineStr">
+        <is>
+          <t>target="_blank"</t>
+        </is>
+      </c>
+      <c r="K202" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - due 4/29, TUE</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="4" t="inlineStr">
+        <is>
+          <t>lecture-28.qmd</t>
+        </is>
+      </c>
+      <c r="B203" s="4" t="inlineStr">
+        <is>
+          <t>Triggers, Views and Security</t>
+        </is>
+      </c>
+      <c r="C203" s="5" t="inlineStr">
+        <is>
+          <t>2025-04-29</t>
+        </is>
+      </c>
+      <c r="D203" s="5" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="E203" s="5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F203" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="G203" s="4" t="inlineStr">
         <is>
           <t>include</t>
         </is>
       </c>
-      <c r="H197" s="4" t="inlineStr">
+      <c r="H203" s="4" t="inlineStr">
         <is>
           <t>When ready, the complete lecture will replace this one.</t>
         </is>
       </c>
-      <c r="I197" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="J197" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="K197" s="4" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="4" t="inlineStr"/>
-      <c r="B198" s="4" t="inlineStr"/>
-      <c r="C198" s="5" t="inlineStr"/>
-      <c r="D198" s="5" t="inlineStr"/>
-      <c r="E198" s="5" t="inlineStr"/>
-      <c r="F198" s="5" t="inlineStr"/>
-      <c r="G198" s="4" t="inlineStr"/>
-      <c r="H198" s="4" t="inlineStr"/>
-      <c r="I198" s="4" t="inlineStr"/>
-      <c r="J198" s="4" t="inlineStr"/>
-      <c r="K198" s="4" t="inlineStr"/>
+      <c r="I203" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="J203" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="K203" s="4" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="4" t="inlineStr"/>
+      <c r="B204" s="4" t="inlineStr"/>
+      <c r="C204" s="5" t="inlineStr"/>
+      <c r="D204" s="5" t="inlineStr"/>
+      <c r="E204" s="5" t="inlineStr"/>
+      <c r="F204" s="5" t="inlineStr"/>
+      <c r="G204" s="4" t="inlineStr"/>
+      <c r="H204" s="4" t="inlineStr"/>
+      <c r="I204" s="4" t="inlineStr"/>
+      <c r="J204" s="4" t="inlineStr"/>
+      <c r="K204" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
